--- a/topicxx-wip/unit-4-labs-week-8/archives/Excel Data for Student Exercises.xlsx
+++ b/topicxx-wip/unit-4-labs-week-8/archives/Excel Data for Student Exercises.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maireadmeagher/Documents/GitRepos/ICT-25/topic03-microsoft-excel/unit-4-labs-week-8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maireadmeagher/Documents/GitRepos/ICT-25/topicxx-wip/unit-4-labs-week-8/archives/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D10C85-8174-A54C-ABBD-7947638CE43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9700131B-6A26-B849-A172-902245FFFAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="5000" windowWidth="23160" windowHeight="17740" tabRatio="749" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="780" windowWidth="23160" windowHeight="17740" tabRatio="749" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1- Stability Testing" sheetId="3" r:id="rId1"/>
@@ -18,18 +18,12 @@
     <sheet name="3-Mice " sheetId="5" r:id="rId3"/>
     <sheet name="4-Haemoglobin" sheetId="12" r:id="rId4"/>
     <sheet name="5-Linearity Range" sheetId="8" r:id="rId5"/>
-    <sheet name="Exercise 11" sheetId="16" r:id="rId6"/>
-    <sheet name="Exercise 12" sheetId="15" r:id="rId7"/>
-    <sheet name="Exercise 13" sheetId="21" r:id="rId8"/>
+    <sheet name="6. Acid Base Reactions" sheetId="16" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Exercise 11'!$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Exercise 11'!$A$8:$A$28</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Exercise 11'!$C$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Exercise 11'!$C$8:$C$28</definedName>
     <definedName name="Hb">[1]Interpol3!$B$3:$B$15</definedName>
     <definedName name="Oxygen">[1]Interpol3!$A$3:$B$15</definedName>
     <definedName name="Pressures">[1]Interpol3!$A$3:$A$15</definedName>
@@ -53,10 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
-  <si>
-    <t>Year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Sample Size Determination for Stability Testing on a New Pharmaceutical Product (at 95% &amp; 90% CI)</t>
   </si>
@@ -369,106 +360,419 @@
     </r>
   </si>
   <si>
-    <t>The Effect of Temperature on the Resistance of a Typical Resistor</t>
-  </si>
-  <si>
-    <r>
-      <t>Temp. (</t>
+    <t xml:space="preserve">1. Calculate time lapse in colums (difference between start and end time) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Calculate Glucose (Mol/minute) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(First row value hardcoded for you to check your formula) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(first row value hardcoded for you to check) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   label the axes and title the graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Insert a line graph for Glucose(mol/min)(Y axos)  vs timelapse (X axis) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Insert line chart with markers. (same x, y axes) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the axes limits  - x -&gt; should </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce the following graph: </t>
+  </si>
+  <si>
+    <t>ToDo: Insert a graph that suitably demonstrates the data</t>
+  </si>
+  <si>
+    <t>ToDo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produce these two graphs: </t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>°</t>
+      <t xml:space="preserve">     </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="5"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>C)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Resistance (</t>
+      <t>In cell C9 enter a formula to calculate ∆pH/∆V</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="Symbol"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="2"/>
       </rPr>
-      <t>W</t>
+      <t xml:space="preserve">     </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="5"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Sizes of Organic Herds Over a Seven Year Period</t>
-  </si>
-  <si>
-    <t>Organic Cow Herds</t>
-  </si>
-  <si>
-    <t>Beef Cows</t>
-  </si>
-  <si>
-    <t>Milk Cows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Calculate time lapse in colums (difference between start and end time) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Calculate Glucose (Mol/minute) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(First row value hardcoded for you to check your formula) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(first row value hardcoded for you to check) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   label the axes and title the graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Insert a line graph for Glucose(mol/min)(Y axos)  vs timelapse (X axis) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Insert line chart with markers. (same x, y axes) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change the axes limits  - x -&gt; should </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produce the following graph: </t>
-  </si>
-  <si>
-    <t>ToDo: Insert a graph that suitably demonstrates the data</t>
-  </si>
-  <si>
-    <t>ToDo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produce these two graphs: </t>
+      <t>Plot an XY scatter chart with smooth lines of pH versus V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(volume of base added (cm</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Insert the correct axis labels.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Insert the following chart title: “The pH Titration Curve of a Strong Acid (HCl) with a Strong Base (NaOH)”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Determine the equivalence point using arrows to display this on the graph.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Plot an </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XY scatter chart with smooth lines of pH versus ∆pH/∆V.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Insert the correct axis labels.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Insert the following chart title: “1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Derivative Plot of a Strong Acid (HCl) with a Strong Base (NaOH)”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Determine the equivalence point using arrows to display this on the graph.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In cells G9 and G11 type in the equivalence points (i.e. volume of base required for the </t>
+    </r>
+  </si>
+  <si>
+    <t>neutralisation of the hydrochloric acid) determined from the pH Titration Curve and the 1st Derivative Plot.</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>video here : https://youtu.be/KkG-Wzdhuwg?si=JABQoxwwzK53gkno</t>
+  </si>
+  <si>
+    <t>video here: https://youtu.be/WqC3o5KXvtc?si=f2Eo2k5KoRt06ZX-</t>
+  </si>
+  <si>
+    <t>video here: https://youtu.be/m-z1RYoveQc?si=u3u_G0NitBu1kO0M</t>
+  </si>
+  <si>
+    <t>video here: https://youtu.be/aGmTs3mxZgQ?si=StC09phQh3t-Mqyk</t>
+  </si>
+  <si>
+    <t>video here: https://youtu.be/kgPNYMT8CrA?si=XCBi3pwesD9CxhfG</t>
   </si>
 </sst>
 </file>
@@ -478,12 +782,12 @@
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="###0.00_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_)"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="###0.00_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0_)"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,14 +956,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -720,29 +1016,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="14"/>
       <color rgb="FF0070C0"/>
@@ -783,29 +1056,72 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -923,6 +1239,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,16 +1379,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="4">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="4">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="4">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1116,7 +1444,7 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="4">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
@@ -1168,7 +1496,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="37" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="64" applyFont="1"/>
@@ -1177,60 +1505,57 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="64" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="69" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="28" fillId="4" borderId="3" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="4" borderId="3" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="64" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="64" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="35" fillId="0" borderId="3" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="3" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="19" fillId="0" borderId="3" xfId="64" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1241,106 +1566,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="3" xfId="64" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="3" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="34" fillId="0" borderId="3" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="69" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="41" fillId="0" borderId="3" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="3" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="35" fillId="0" borderId="3" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="35" fillId="0" borderId="3" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="69" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="64" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="47" fillId="0" borderId="3" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="47" fillId="0" borderId="3" xfId="64" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="70">
     <cellStyle name="Accent1 - 20%" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1427,1004 +1742,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Exercise 11'!$C$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>∆pH/∆V</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Exercise 11'!$A$8:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>36</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Exercise 11'!$C$8:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="1">
-                  <c:v>2.0000000000000018E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5000000000000022E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4999999999999911E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5000000000000013E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0000000000000018E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0000000000000027E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5000000000000022E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4999999999999911E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.0000000000000027E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.0000000000000044E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5000000000000013E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.000000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.40999999999999992</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.1199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.6799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.40000000000000036</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.9999999999999645E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.0000000000000249E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.9999999999997868E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.0000000000000675E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E6C1-514A-ACED-A0059922FD6C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="579586416"/>
-        <c:axId val="579588128"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="579586416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="579588128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="579588128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="579586416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill>
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="74000">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="45000"/>
-            <a:lumOff val="55000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="83000">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="45000"/>
-            <a:lumOff val="55000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="accent1">
-            <a:lumMod val="30000"/>
-            <a:lumOff val="70000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:lin ang="5400000" scaled="1"/>
-    </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -2435,8 +1752,8 @@
       <xdr:rowOff>109359</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4035777" cy="765529"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2637,7 +1954,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2784,8 +2101,8 @@
       <xdr:rowOff>106537</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4035777" cy="765529"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -2992,7 +2309,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -3506,42 +2823,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A05D9C3F-C142-A8E3-12F5-9116D6183E32}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3865,24 +3146,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18">
-      <c r="A1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
     </row>
     <row r="2" spans="1:16" ht="14" thickBot="1"/>
     <row r="3" spans="1:16" ht="16" customHeight="1" thickBot="1">
@@ -3890,66 +3171,66 @@
         <v>1.96</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="D3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="12"/>
       <c r="J3" s="15">
         <v>1.65</v>
       </c>
       <c r="K3" s="12"/>
-      <c r="L3" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="L3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
     </row>
     <row r="4" spans="1:16" ht="16" customHeight="1">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="51">
+      <c r="D4" s="45">
         <v>0.01</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="45">
         <v>0.02</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="45">
         <v>0.05</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="45">
         <v>0.1</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="45">
         <v>0.25</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="51">
+      <c r="L4" s="45">
         <v>0.01</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="45">
         <v>0.02</v>
       </c>
-      <c r="N4" s="51">
+      <c r="N4" s="45">
         <v>0.05</v>
       </c>
-      <c r="O4" s="51">
+      <c r="O4" s="45">
         <v>0.1</v>
       </c>
-      <c r="P4" s="51">
+      <c r="P4" s="45">
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16" customHeight="1">
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="51" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="13">
         <v>0.1</v>
@@ -3960,8 +3241,8 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="56" t="s">
-        <v>3</v>
+      <c r="J5" s="51" t="s">
+        <v>2</v>
       </c>
       <c r="K5" s="13">
         <v>0.1</v>
@@ -3973,7 +3254,7 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16" ht="16" customHeight="1">
-      <c r="B6" s="56"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="13">
         <v>0.2</v>
       </c>
@@ -3983,7 +3264,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="56"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="13">
         <v>0.2</v>
       </c>
@@ -3994,7 +3275,7 @@
       <c r="P6" s="14"/>
     </row>
     <row r="7" spans="1:16" ht="16" customHeight="1">
-      <c r="B7" s="56"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="13">
         <v>0.3</v>
       </c>
@@ -4004,7 +3285,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="56"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="13">
         <v>0.3</v>
       </c>
@@ -4015,7 +3296,7 @@
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16" ht="16" customHeight="1">
-      <c r="B8" s="56"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="13">
         <v>0.4</v>
       </c>
@@ -4025,7 +3306,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="56"/>
+      <c r="J8" s="51"/>
       <c r="K8" s="13">
         <v>0.4</v>
       </c>
@@ -4036,7 +3317,7 @@
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" ht="16" customHeight="1">
-      <c r="B9" s="56"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13">
         <v>0.5</v>
       </c>
@@ -4046,7 +3327,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="56"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="13">
         <v>0.5</v>
       </c>
@@ -4057,7 +3338,7 @@
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" ht="16" customHeight="1">
-      <c r="B10" s="56"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="13">
         <v>0.6</v>
       </c>
@@ -4067,7 +3348,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="56"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="13">
         <v>0.6</v>
       </c>
@@ -4078,7 +3359,7 @@
       <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" ht="16" customHeight="1">
-      <c r="B11" s="56"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="13">
         <v>0.7</v>
       </c>
@@ -4088,7 +3369,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="56"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="13">
         <v>0.7</v>
       </c>
@@ -4099,7 +3380,7 @@
       <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:16" ht="16" customHeight="1">
-      <c r="B12" s="56"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="13">
         <v>0.8</v>
       </c>
@@ -4109,7 +3390,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="56"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="13">
         <v>0.8</v>
       </c>
@@ -4120,7 +3401,7 @@
       <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:16" ht="16" customHeight="1">
-      <c r="B13" s="56"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="13">
         <v>0.9</v>
       </c>
@@ -4130,7 +3411,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="56"/>
+      <c r="J13" s="51"/>
       <c r="K13" s="13">
         <v>0.9</v>
       </c>
@@ -4141,7 +3422,7 @@
       <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:16" ht="16" customHeight="1">
-      <c r="B14" s="56"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13">
         <v>1</v>
       </c>
@@ -4151,7 +3432,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="56"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="13">
         <v>1</v>
       </c>
@@ -4162,7 +3443,7 @@
       <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16" ht="16" customHeight="1">
-      <c r="B15" s="56"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="13">
         <v>2</v>
       </c>
@@ -4172,7 +3453,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="56"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="13">
         <v>2</v>
       </c>
@@ -4183,7 +3464,7 @@
       <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:16" ht="16" customHeight="1">
-      <c r="B16" s="56"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="13">
         <v>3</v>
       </c>
@@ -4193,7 +3474,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="56"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="13">
         <v>3</v>
       </c>
@@ -4220,10 +3501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -4239,226 +3520,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="A1" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="12" customHeight="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="18">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="5"/>
       <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="C6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>8</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <v>0.41319444444444442</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>0.43402777777777773</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="48">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>26</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="49">
         <v>0.87</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="30">
+      <c r="A8" s="29">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32">
+      <c r="C8" s="30"/>
+      <c r="D8" s="31">
         <v>38</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="5"/>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="30">
+      <c r="A9" s="29">
         <v>0.42013888888888901</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <v>0.48263888888888901</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32">
+      <c r="C9" s="30"/>
+      <c r="D9" s="31">
         <v>48</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="5"/>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="30">
+      <c r="A10" s="29">
         <v>0.42361111111111099</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <v>0.50694444444444398</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32">
+      <c r="C10" s="30"/>
+      <c r="D10" s="31">
         <v>57</v>
       </c>
-      <c r="E10" s="33"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="30">
+      <c r="A11" s="29">
         <v>0.42708333333333398</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="29">
         <v>0.53125</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32">
+      <c r="C11" s="30"/>
+      <c r="D11" s="31">
         <v>65</v>
       </c>
-      <c r="E11" s="33"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="5"/>
       <c r="G11" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <v>0.43055555555555602</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <v>0.55555555555555602</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32">
+      <c r="C12" s="30"/>
+      <c r="D12" s="31">
         <v>74</v>
       </c>
-      <c r="E12" s="33"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="5"/>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="30">
+      <c r="A13" s="29">
         <v>0.43402777777777801</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>0.57986111111111105</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32">
+      <c r="C13" s="30"/>
+      <c r="D13" s="31">
         <v>81</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="30">
+      <c r="A14" s="29">
         <v>0.4375</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>0.60416666666666696</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32">
+      <c r="C14" s="30"/>
+      <c r="D14" s="31">
         <v>86</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="5"/>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="30">
+      <c r="A15" s="29">
         <v>0.44097222222222299</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <v>0.62847222222222299</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32">
+      <c r="C15" s="30"/>
+      <c r="D15" s="31">
         <v>90</v>
       </c>
-      <c r="E15" s="33"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="5"/>
       <c r="G15" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4474,22 +3760,24 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="72.33203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
-      <c r="A1" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="A1" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4497,10 +3785,10 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -4508,10 +3796,10 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="18">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -4521,21 +3809,21 @@
     <row r="4" spans="1:9">
       <c r="A4" s="17"/>
       <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="19">
         <v>47</v>
@@ -4546,10 +3834,13 @@
       <c r="D5" s="19">
         <v>16</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="19">
         <v>60</v>
@@ -4649,61 +3940,66 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="3"/>
+    <col min="3" max="13" width="8.83203125" style="3"/>
+    <col min="14" max="14" width="66.5" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1">
+      <c r="A1" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="57"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="62"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="D7" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="20" t="s">
+      <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="N8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="21">
         <v>117</v>
       </c>
@@ -4711,7 +4007,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:14">
       <c r="A10" s="21">
         <v>108</v>
       </c>
@@ -4719,7 +4015,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:14">
       <c r="A11" s="21">
         <v>103</v>
       </c>
@@ -4727,7 +4023,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:14">
       <c r="A12" s="21">
         <v>99</v>
       </c>
@@ -4735,7 +4031,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:14">
       <c r="A13" s="21">
         <v>96</v>
       </c>
@@ -4743,7 +4039,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:14">
       <c r="A14" s="21">
         <v>93</v>
       </c>
@@ -4751,7 +4047,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:14">
       <c r="A15" s="21">
         <v>92</v>
       </c>
@@ -4759,7 +4055,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:14">
       <c r="A16" s="21">
         <v>86</v>
       </c>
@@ -4789,10 +4085,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -4800,7 +4096,9 @@
     <col min="1" max="1" width="23.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="4" customWidth="1"/>
-    <col min="4" max="256" width="8.83203125" style="4"/>
+    <col min="4" max="14" width="8.83203125" style="4"/>
+    <col min="15" max="15" width="53.5" style="4" customWidth="1"/>
+    <col min="16" max="256" width="8.83203125" style="4"/>
     <col min="257" max="257" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="259" max="512" width="8.83203125" style="4"/>
@@ -4992,193 +4290,196 @@
     <col min="16131" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" ht="12.75" customHeight="1">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:15" ht="16">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" ht="16">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:15" ht="16">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-    </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-    </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-    </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-    </row>
-    <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="E7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18">
-      <c r="A8" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16">
-      <c r="A9" s="36">
+    </row>
+    <row r="9" spans="1:15" ht="16">
+      <c r="A9" s="35">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="36">
+    <row r="10" spans="1:15" ht="16">
+      <c r="A10" s="35">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="16">
-      <c r="A11" s="36">
+      <c r="O10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16">
+      <c r="A11" s="35">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <v>2.9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16">
-      <c r="A12" s="36">
+    <row r="12" spans="1:15" ht="16">
+      <c r="A12" s="35">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>3.3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16">
-      <c r="A13" s="36">
+    <row r="13" spans="1:15" ht="16">
+      <c r="A13" s="35">
         <v>1.35E-2</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="36">
         <v>3.3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="36">
+    <row r="14" spans="1:15" ht="16">
+      <c r="A14" s="35">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>3.3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16">
-      <c r="A15" s="36">
+    <row r="15" spans="1:15" ht="16">
+      <c r="A15" s="35">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>4.2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16">
-      <c r="A16" s="36">
+    <row r="16" spans="1:15" ht="16">
+      <c r="A16" s="35">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="36">
         <v>4.2</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16">
-      <c r="A17" s="36">
+      <c r="A17" s="35">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="36">
         <v>5.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16">
-      <c r="A18" s="36">
+      <c r="A18" s="35">
         <v>6.3E-2</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16">
-      <c r="A19" s="36">
+      <c r="A19" s="35">
         <v>0.09</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>8.9</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16">
-      <c r="A20" s="36">
+      <c r="A20" s="35">
         <v>0.125</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>23.3</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16">
-      <c r="A21" s="36">
+      <c r="A21" s="35">
         <v>0.18</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="36">
         <v>59.2</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16">
-      <c r="A22" s="36">
+      <c r="A22" s="35">
         <v>0.25</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16">
-      <c r="A23" s="36">
+      <c r="A23" s="35">
         <v>0.3</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <v>96.1</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16">
-      <c r="A24" s="36">
+      <c r="A24" s="35">
         <v>0.42499999999999999</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="36">
         <v>99.9</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16">
-      <c r="A25" s="36">
+      <c r="A25" s="35">
         <v>0.5</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="36">
         <v>100</v>
       </c>
     </row>
@@ -5195,163 +4496,191 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="90.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:15" ht="18">
+      <c r="A1" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1">
+      <c r="A3" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="O3" s="64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="O4" s="65"/>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="O5" s="63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17">
+      <c r="O6" s="63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="36" customHeight="1">
+      <c r="A7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-    </row>
-    <row r="7" spans="1:10" ht="36" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="B7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="C7" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-    </row>
-    <row r="8" spans="1:10" ht="16">
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="O7" s="63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16">
       <c r="A8" s="24">
         <v>0</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="40">
         <v>1.01</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="1:10" ht="18">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="O8" s="63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18">
       <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <v>1.05</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="41">
         <f>(B9-B8)/(A9-A8)</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="D9" s="23"/>
-      <c r="E9" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="43"/>
-    </row>
-    <row r="10" spans="1:10" ht="16">
+      <c r="E9" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="42"/>
+      <c r="O9" s="63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16">
       <c r="A10" s="24">
         <v>4</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <f t="shared" ref="C10:C28" si="0">(B10-B9)/(A10-A9)</f>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="D10" s="23"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:10" ht="18">
+      <c r="E10" s="43"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="O10" s="63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="24">
         <v>6</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="40">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
       <c r="D11" s="23"/>
-      <c r="E11" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="43"/>
-    </row>
-    <row r="12" spans="1:10" ht="16">
+      <c r="E11" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="62"/>
+      <c r="G11" s="42"/>
+      <c r="O11" s="63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="17">
       <c r="A12" s="24">
         <v>8</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="40">
         <v>1.18</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <f t="shared" si="0"/>
         <v>1.5000000000000013E-2</v>
       </c>
@@ -5359,15 +4688,18 @@
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:10" ht="16">
+      <c r="O12" s="63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16">
       <c r="A13" s="24">
         <v>10</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="40">
         <v>1.22</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="41">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -5375,15 +4707,18 @@
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:10" ht="16">
+      <c r="O13" s="63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16">
       <c r="A14" s="24">
         <v>12</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="40">
         <v>1.28</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="41">
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -5391,15 +4726,18 @@
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:10" ht="16">
+      <c r="O14" s="63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16">
       <c r="A15" s="24">
         <v>14</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="40">
         <v>1.33</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <f t="shared" si="0"/>
         <v>2.5000000000000022E-2</v>
       </c>
@@ -5407,15 +4745,18 @@
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:10" ht="16">
+      <c r="O15" s="63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16">
       <c r="A16" s="24">
         <v>16</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="40">
         <v>1.38</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="41">
         <f t="shared" si="0"/>
         <v>2.4999999999999911E-2</v>
       </c>
@@ -5424,14 +4765,14 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:7" ht="16">
+    <row r="17" spans="1:15" ht="16">
       <c r="A17" s="24">
         <v>18</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="40">
         <v>1.44</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="41">
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -5440,14 +4781,14 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="1:7" ht="16">
+    <row r="18" spans="1:15" ht="16">
       <c r="A18" s="24">
         <v>20</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="40">
         <v>1.45</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <f t="shared" si="0"/>
         <v>5.0000000000000044E-3</v>
       </c>
@@ -5456,14 +4797,14 @@
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
     </row>
-    <row r="19" spans="1:7" ht="16">
+    <row r="19" spans="1:15" ht="16">
       <c r="A19" s="24">
         <v>22</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="40">
         <v>1.48</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="41">
         <f t="shared" si="0"/>
         <v>1.5000000000000013E-2</v>
       </c>
@@ -5472,14 +4813,14 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
     </row>
-    <row r="20" spans="1:7" ht="16">
+    <row r="20" spans="1:15" ht="16">
       <c r="A20" s="24">
         <v>23</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="40">
         <v>1.57</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="41">
         <f t="shared" si="0"/>
         <v>9.000000000000008E-2</v>
       </c>
@@ -5488,14 +4829,14 @@
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
     </row>
-    <row r="21" spans="1:7" ht="16">
+    <row r="21" spans="1:15" ht="16">
       <c r="A21" s="24">
         <v>24</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="40">
         <v>1.98</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="41">
         <f t="shared" si="0"/>
         <v>0.40999999999999992</v>
       </c>
@@ -5504,14 +4845,14 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
     </row>
-    <row r="22" spans="1:7" ht="16">
+    <row r="22" spans="1:15" ht="16">
       <c r="A22" s="24">
         <v>25</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="40">
         <v>7.1</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="41">
         <f t="shared" si="0"/>
         <v>5.1199999999999992</v>
       </c>
@@ -5520,14 +4861,14 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" ht="16">
+    <row r="23" spans="1:15" ht="16">
       <c r="A23" s="24">
         <v>26</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="40">
         <v>10.78</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="41">
         <f t="shared" si="0"/>
         <v>3.6799999999999997</v>
       </c>
@@ -5535,15 +4876,18 @@
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" ht="16">
+      <c r="O23" s="66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16">
       <c r="A24" s="24">
         <v>28</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="40">
         <v>11.58</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="41">
         <f t="shared" si="0"/>
         <v>0.40000000000000036</v>
       </c>
@@ -5552,14 +4896,14 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
     </row>
-    <row r="25" spans="1:7" ht="16">
+    <row r="25" spans="1:15" ht="16">
       <c r="A25" s="24">
         <v>30</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="40">
         <v>11.78</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="41">
         <f t="shared" si="0"/>
         <v>9.9999999999999645E-2</v>
       </c>
@@ -5568,14 +4912,14 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="1:7" ht="16">
+    <row r="26" spans="1:15" ht="16">
       <c r="A26" s="24">
         <v>32</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="40">
         <v>11.84</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="41">
         <f t="shared" si="0"/>
         <v>3.0000000000000249E-2</v>
       </c>
@@ -5584,14 +4928,14 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
     </row>
-    <row r="27" spans="1:7" ht="16">
+    <row r="27" spans="1:15" ht="16">
       <c r="A27" s="24">
         <v>34</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="40">
         <v>11.86</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="41">
         <f t="shared" si="0"/>
         <v>9.9999999999997868E-3</v>
       </c>
@@ -5600,14 +4944,14 @@
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
     </row>
-    <row r="28" spans="1:7" ht="16">
+    <row r="28" spans="1:15" ht="16">
       <c r="A28" s="24">
         <v>36</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="40">
         <v>11.88</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="41">
         <f t="shared" si="0"/>
         <v>1.0000000000000675E-2</v>
       </c>
@@ -5616,17 +4960,17 @@
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:15">
       <c r="A30" s="10"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:15">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:15">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -5662,7 +5006,8 @@
       <c r="C38" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="A3:J5"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E9:F9"/>
@@ -5672,321 +5017,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-    </row>
-    <row r="6" spans="1:6" ht="16">
-      <c r="A6" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16">
-      <c r="A7" s="24">
-        <v>0</v>
-      </c>
-      <c r="B7" s="24">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16">
-      <c r="A8" s="24">
-        <v>10</v>
-      </c>
-      <c r="B8" s="24">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16">
-      <c r="A9" s="24">
-        <v>20</v>
-      </c>
-      <c r="B9" s="24">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16">
-      <c r="A10" s="24">
-        <v>30</v>
-      </c>
-      <c r="B10" s="24">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16">
-      <c r="A11" s="24">
-        <v>40</v>
-      </c>
-      <c r="B11" s="24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16">
-      <c r="A12" s="24">
-        <v>50</v>
-      </c>
-      <c r="B12" s="24">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16">
-      <c r="A13" s="24">
-        <v>60</v>
-      </c>
-      <c r="B13" s="24">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16">
-      <c r="A14" s="24">
-        <v>70</v>
-      </c>
-      <c r="B14" s="24">
-        <v>48.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16">
-      <c r="A15" s="24">
-        <v>80</v>
-      </c>
-      <c r="B15" s="24">
-        <v>51.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16">
-      <c r="A16" s="24">
-        <v>90</v>
-      </c>
-      <c r="B16" s="24">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16">
-      <c r="A17" s="24">
-        <v>100</v>
-      </c>
-      <c r="B17" s="24">
-        <v>56.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="19">
-      <c r="A6" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-    </row>
-    <row r="7" spans="1:6" ht="16">
-      <c r="A7" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16">
-      <c r="A8" s="24">
-        <v>2010</v>
-      </c>
-      <c r="B8" s="24">
-        <v>25000</v>
-      </c>
-      <c r="C8" s="24">
-        <v>59780</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16">
-      <c r="A9" s="24">
-        <v>2011</v>
-      </c>
-      <c r="B9" s="24">
-        <v>37000</v>
-      </c>
-      <c r="C9" s="24">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16">
-      <c r="A10" s="24">
-        <v>2012</v>
-      </c>
-      <c r="B10" s="24">
-        <v>40000</v>
-      </c>
-      <c r="C10" s="24">
-        <v>63300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16">
-      <c r="A11" s="24">
-        <v>2013</v>
-      </c>
-      <c r="B11" s="24">
-        <v>37100</v>
-      </c>
-      <c r="C11" s="24">
-        <v>64500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16">
-      <c r="A12" s="24">
-        <v>2014</v>
-      </c>
-      <c r="B12" s="24">
-        <v>47800</v>
-      </c>
-      <c r="C12" s="24">
-        <v>78100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="16">
-      <c r="A13" s="24">
-        <v>2015</v>
-      </c>
-      <c r="B13" s="24">
-        <v>48100</v>
-      </c>
-      <c r="C13" s="24">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16">
-      <c r="A14" s="24">
-        <v>2016</v>
-      </c>
-      <c r="B14" s="24">
-        <v>58600</v>
-      </c>
-      <c r="C14" s="24">
-        <v>105000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:C4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>